--- a/resources/public/excel/Paikkausehdotukset_pohja.xlsx
+++ b/resources/public/excel/Paikkausehdotukset_pohja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paikkausmallipohja" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Paikkausehdotukset 2021</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Käsin tehtävät paikkaukset pikapaikkausmassalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB-paikkaus käsin </t>
   </si>
   <si>
     <t xml:space="preserve">PAB-paikkaus käsin</t>
@@ -426,6 +429,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{A8000000-0000-0000-E0E9-F5011D7F0000}"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -433,8 +444,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A2:A18 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,11 +602,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5" type="list">
-      <formula1>Lähtötiedot!$A$2:$A$17</formula1>
+      <formula1>Lähtötiedot!$A$2:$A$18</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M5" type="none">
-      <formula1>Lähtötiedot!$A$2:$A$17</formula1>
+      <formula1>Lähtötiedot!$A$2:$A$18</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -614,13 +625,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="50.0859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
@@ -712,7 +723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
         <v>36</v>
       </c>
@@ -720,6 +731,11 @@
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/resources/public/excel/Paikkausehdotukset_pohja.xlsx
+++ b/resources/public/excel/Paikkausehdotukset_pohja.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markusva/repos/harja/resources/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C71FB-ABC7-7747-BC1F-8CC5B82BE205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A133FE-CE9D-644C-AC1F-468C9E554350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="4180" windowWidth="26440" windowHeight="15440" xr2:uid="{C22408D7-6F7C-4943-BF68-B3F8EAF4AB01}"/>
+    <workbookView xWindow="13620" yWindow="2340" windowWidth="18720" windowHeight="19240" activeTab="1" xr2:uid="{C22408D7-6F7C-4943-BF68-B3F8EAF4AB01}"/>
   </bookViews>
   <sheets>
     <sheet name="Paikkausmallipohja" sheetId="1" r:id="rId1"/>
     <sheet name="Lähtötiedot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="menetelmat">Lähtötiedot!$A$2:$A$18</definedName>
-    <definedName name="Paikkausmenetelmät">Lähtötiedot!$A$2:$A$18</definedName>
+    <definedName name="menetelmat">Lähtötiedot!$A$2:$A$20</definedName>
+    <definedName name="Paikkausmenetelmät">Lähtötiedot!$A$2:$A$20</definedName>
     <definedName name="Yksikkö">Paikkausmallipohja!$M$4</definedName>
     <definedName name="Yksikot">Lähtötiedot!$B$2:$B$5</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Paikkausehdotukset 2021</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t>SMA-paikkaus levittäjällä</t>
+  </si>
+  <si>
+    <t>Jyrsintä (HJYR/TJYR)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595625A6-47F1-684F-ABD4-33499C3CBE28}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +732,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C7183-5A3F-6846-A067-9A309CB0CDE9}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +852,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -854,7 +860,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -862,70 +868,81 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>